--- a/backend/api/servicehandler/services/Social Worker.xlsx
+++ b/backend/api/servicehandler/services/Social Worker.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utoronto-my.sharepoint.com/personal/behnaz_merikhi_utoronto_ca/Documents/ASD Project/DB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dextertam/Documents/UofT/Y3/_Extracurricular/AutismCanadaAI/backend/api/servicehandler/services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{FA41A700-FD26-4811-BE4D-035181DA7D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E7D8CA-2CC0-2549-BBD2-CB2A302B239A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recovered_Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="125">
   <si>
     <t>https://www.myautismguide.ca/mag/content/provider/act-learning-centre?nid=569631</t>
   </si>
@@ -32,9 +31,6 @@
     <t>2270 St. Laurent Blvd. Ottawa, ONK1G 6C4</t>
   </si>
   <si>
-    <t>tel:</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/applied-behavioural-interventions?nid=569861</t>
   </si>
   <si>
@@ -44,9 +40,6 @@
     <t>Richmond Hill, ON</t>
   </si>
   <si>
-    <t>tel:(905) 780-9680</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/beausejour-family-crisis-resource-centre?nid=588141</t>
   </si>
   <si>
@@ -56,9 +49,6 @@
     <t>66 Calder St Shediac, NBE4P 1K8</t>
   </si>
   <si>
-    <t>tel:506-533-9100</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/calgary-society-persons-disabilities?nid=558966</t>
   </si>
   <si>
@@ -68,9 +58,6 @@
     <t>3410 Spruce Drive SW  Calgary, ABT3C 3A4</t>
   </si>
   <si>
-    <t>tel:(403) 246-4450</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/care-counselling?nid=559021</t>
   </si>
   <si>
@@ -80,9 +67,6 @@
     <t>Suite #208 5704 44th Street Lloydminster, ABT9V 0B6</t>
   </si>
   <si>
-    <t>tel:(306) 821-0377</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/cariboo-friendship-society?nid=562246</t>
   </si>
   <si>
@@ -92,9 +76,6 @@
     <t>99 South Third Avenue   Williams Lake, BCV2G 1J1</t>
   </si>
   <si>
-    <t>tel:(250) 398-6831</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/cbi-health-group?nid=562276</t>
   </si>
   <si>
@@ -104,9 +85,6 @@
     <t>BC</t>
   </si>
   <si>
-    <t>tel:1 800-463-2225</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/child-development-team-western-region?nid=582501</t>
   </si>
   <si>
@@ -116,9 +94,6 @@
     <t>3rd Floor, WMRH P.O Box 2005 Corner Brooke, NLA2H 6J7</t>
   </si>
   <si>
-    <t>tel:7096375000 6655</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/chrysalis?nid=559256</t>
   </si>
   <si>
@@ -128,18 +103,12 @@
     <t>13325 St. Albert Trail NW Edmonton, ABT5L 4R3</t>
   </si>
   <si>
-    <t>tel:(780) 454-9656</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/chrysalis-0?nid=559261</t>
   </si>
   <si>
     <t>7, 6020 - 1A St. SW Calgary, ABT2H 0G3</t>
   </si>
   <si>
-    <t>tel:(403) 258-1501</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/coach-apparent-ltd?nid=559271</t>
   </si>
   <si>
@@ -149,9 +118,6 @@
     <t>Edmonton, AB</t>
   </si>
   <si>
-    <t>tel:(780) 236-2622</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/connections-counselling-and-consulting-foundation?nid=559311</t>
   </si>
   <si>
@@ -161,9 +127,6 @@
     <t>510, 1716 16th Avenue NW Calgary, ABT2M 0L7</t>
   </si>
   <si>
-    <t>tel:(403) 209-1100</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/corinne-eckert-child-and-adolescent-psychology?nid=559316</t>
   </si>
   <si>
@@ -173,9 +136,6 @@
     <t>204 - 10115-150 St Edmonton, ABT5P 1P2</t>
   </si>
   <si>
-    <t>tel:(780) 454-4634</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/extend-family-0?nid=588311</t>
   </si>
   <si>
@@ -185,9 +145,6 @@
     <t>200-3300 Yonge Street Toronto, ONM4N 2L6</t>
   </si>
   <si>
-    <t>tel:416-484-1317</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/five-counties-childrens-centre?nid=572766</t>
   </si>
   <si>
@@ -197,45 +154,30 @@
     <t>9 Russell Street East Lindsay, ONK9V 1Z7</t>
   </si>
   <si>
-    <t>tel:(705) 324-1922</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/five-counties-childrens-centre-0?nid=572771</t>
   </si>
   <si>
     <t>872 Dutton Road peterboorugh, ONK9H 7G1</t>
   </si>
   <si>
-    <t>tel:(705) 748-2221</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/five-counties-childrens-centre-1?nid=572776</t>
   </si>
   <si>
     <t>2 - 800 Division Street Cobourg, ONK9A 5V2</t>
   </si>
   <si>
-    <t>tel:(905) 377-0192</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/five-counties-childrens-centre-2?nid=572781</t>
   </si>
   <si>
     <t>174 Oliver Road Campbellford, ONK0L 1L0</t>
   </si>
   <si>
-    <t>tel:(705) 653-1334</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/five-counties-childrens-centre-3?nid=572786</t>
   </si>
   <si>
     <t>6 McPherson St. Minden, ONK0M 2K0</t>
   </si>
   <si>
-    <t>tel:(705) 286-0737</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/functionability?nid=572841</t>
   </si>
   <si>
@@ -251,27 +193,18 @@
     <t>119 Ross Avenue Ottawa, ONK1Y 0N6</t>
   </si>
   <si>
-    <t>tel:(613) 688-9922</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/functionability-1?nid=572851</t>
   </si>
   <si>
     <t>5125 Montrose Road Niagara Falls, ONL2H 0C1</t>
   </si>
   <si>
-    <t>tel:(289) 434-4356</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/functionability-2?nid=572856</t>
   </si>
   <si>
     <t>509 Commissioners Road West Suite 308 London, ONN6J 1Y5</t>
   </si>
   <si>
-    <t>tel:(519) 694-3221</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/hand-skills-children?nid=573076</t>
   </si>
   <si>
@@ -281,9 +214,6 @@
     <t>658 Danforth Suite 406 Toronto, ONM4J 5B9</t>
   </si>
   <si>
-    <t>tel:(647) 236-4263</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/inspire-community-outreach?nid=588416</t>
   </si>
   <si>
@@ -293,9 +223,6 @@
     <t>175 Mayfair Ave Winnipeg, MBR3L 0A1</t>
   </si>
   <si>
-    <t>tel:204-996-1547</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/inspire-community-outreach-inc?nid=566906</t>
   </si>
   <si>
@@ -305,9 +232,6 @@
     <t>1344 Main Street Winnipeg, MBR2W 3T6</t>
   </si>
   <si>
-    <t>tel:(204) 996-1547</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/isand?nid=573406</t>
   </si>
   <si>
@@ -317,9 +241,6 @@
     <t>5734 Yonge Street, Suite 500 Toronto, ONM2M 4E7</t>
   </si>
   <si>
-    <t>tel:(416) 224-5959</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/janice-bell-social-worker?nid=561946</t>
   </si>
   <si>
@@ -329,9 +250,6 @@
     <t>203, 335 Wesley St Nanaimo, BCV9R 2T5</t>
   </si>
   <si>
-    <t>tel:(250) 244-2929</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/kids-pathways-peel-0?nid=588446</t>
   </si>
   <si>
@@ -341,9 +259,6 @@
     <t>75 Watline Ave Unit #103 Mississauga, ONL4Z 3E5</t>
   </si>
   <si>
-    <t>tel:905-890-9432</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/nunavummi-disabilities-makinnasuaqtiit-society?nid=588576</t>
   </si>
   <si>
@@ -353,9 +268,6 @@
     <t>PO Box 4212 Iqaluit, NUX0A1H0</t>
   </si>
   <si>
-    <t>tel:867-979-2228</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/paula-jurczak-counseling-services?nid=588616</t>
   </si>
   <si>
@@ -365,9 +277,6 @@
     <t>Richmond , BC</t>
   </si>
   <si>
-    <t>tel:604-836-7714</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/supportive-steps-services?nid=588776</t>
   </si>
   <si>
@@ -377,9 +286,6 @@
     <t>436 Queen Street Newmarket, ONL3Y 2H2</t>
   </si>
   <si>
-    <t>tel:416-508-1780</t>
-  </si>
-  <si>
     <t>https://www.myautismguide.ca/mag/content/provider/woods-homes-6?nid=588891</t>
   </si>
   <si>
@@ -389,9 +295,6 @@
     <t>805 37 St. NW Calgary, AB</t>
   </si>
   <si>
-    <t>tel:403-270-4102</t>
-  </si>
-  <si>
     <t>Myautism webpage Info</t>
   </si>
   <si>
@@ -402,6 +305,96 @@
   </si>
   <si>
     <t>Phone</t>
+  </si>
+  <si>
+    <t>(905) 780-9680</t>
+  </si>
+  <si>
+    <t>(403) 246-4450</t>
+  </si>
+  <si>
+    <t>(306) 821-0377</t>
+  </si>
+  <si>
+    <t>(250) 398-6831</t>
+  </si>
+  <si>
+    <t>(780) 454-9656</t>
+  </si>
+  <si>
+    <t>(403) 258-1501</t>
+  </si>
+  <si>
+    <t>(780) 236-2622</t>
+  </si>
+  <si>
+    <t>(403) 209-1100</t>
+  </si>
+  <si>
+    <t>(780) 454-4634</t>
+  </si>
+  <si>
+    <t>(705) 324-1922</t>
+  </si>
+  <si>
+    <t>(705) 748-2221</t>
+  </si>
+  <si>
+    <t>(905) 377-0192</t>
+  </si>
+  <si>
+    <t>(705) 653-1334</t>
+  </si>
+  <si>
+    <t>(705) 286-0737</t>
+  </si>
+  <si>
+    <t>(613) 688-9922</t>
+  </si>
+  <si>
+    <t>(289) 434-4356</t>
+  </si>
+  <si>
+    <t>(519) 694-3221</t>
+  </si>
+  <si>
+    <t>(647) 236-4263</t>
+  </si>
+  <si>
+    <t>(204) 996-1547</t>
+  </si>
+  <si>
+    <t>(416) 224-5959</t>
+  </si>
+  <si>
+    <t>(250) 244-2929</t>
+  </si>
+  <si>
+    <t>(506) 533-9100</t>
+  </si>
+  <si>
+    <t>(800)463-2225</t>
+  </si>
+  <si>
+    <t>(709) 637-5000-6655</t>
+  </si>
+  <si>
+    <t>(416) 484-1317</t>
+  </si>
+  <si>
+    <t>(905) 890-9432</t>
+  </si>
+  <si>
+    <t>(867) 979-2228</t>
+  </si>
+  <si>
+    <t>(604) 836-7714</t>
+  </si>
+  <si>
+    <t>(416) 508-1780</t>
+  </si>
+  <si>
+    <t>(403) 270-4102</t>
   </si>
 </sst>
 </file>
@@ -789,33 +782,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="200" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.875" customWidth="1"/>
-    <col min="2" max="2" width="34.875" customWidth="1"/>
-    <col min="3" max="3" width="32.75" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="1" max="1" width="27.83203125" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -825,456 +818,450 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C13" t="s">
         <v>34</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="C14" t="s">
         <v>37</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B15" t="s">
         <v>39</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C15" t="s">
         <v>40</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>41</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B16" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C16" t="s">
         <v>43</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>44</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
         <v>45</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
         <v>47</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>48</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
         <v>49</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
         <v>51</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>52</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B21" t="s">
         <v>53</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>55</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
         <v>56</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>57</v>
       </c>
-      <c r="D16" t="s">
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>59</v>
       </c>
-      <c r="B17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
         <v>60</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B25" t="s">
         <v>62</v>
       </c>
-      <c r="B18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="C25" t="s">
         <v>63</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B26" t="s">
         <v>65</v>
       </c>
-      <c r="B19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="C26" t="s">
         <v>66</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B27" t="s">
         <v>68</v>
       </c>
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="C27" t="s">
         <v>69</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B28" t="s">
         <v>71</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C28" t="s">
         <v>72</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>73</v>
       </c>
-      <c r="D21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B29" t="s">
         <v>74</v>
       </c>
-      <c r="B22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="C29" t="s">
         <v>75</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B30" t="s">
         <v>77</v>
       </c>
-      <c r="B23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="C30" t="s">
         <v>78</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B31" t="s">
         <v>80</v>
       </c>
-      <c r="B24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="C31" t="s">
         <v>81</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B32" t="s">
         <v>83</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C32" t="s">
         <v>84</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D32" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>85</v>
       </c>
-      <c r="D25" t="s">
+      <c r="B33" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="C33" t="s">
         <v>87</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>88</v>
       </c>
-      <c r="C26" t="s">
+      <c r="B34" t="s">
         <v>89</v>
       </c>
-      <c r="D26" t="s">
+      <c r="C34" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>107</v>
-      </c>
-      <c r="B31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" t="s">
-        <v>109</v>
-      </c>
-      <c r="D31" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>111</v>
-      </c>
-      <c r="B32" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32" t="s">
-        <v>113</v>
-      </c>
-      <c r="D32" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>115</v>
-      </c>
-      <c r="B33" t="s">
-        <v>116</v>
-      </c>
-      <c r="C33" t="s">
-        <v>117</v>
-      </c>
-      <c r="D33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>119</v>
-      </c>
-      <c r="B34" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" t="s">
-        <v>121</v>
-      </c>
       <c r="D34" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
